--- a/gpu_results.xlsx
+++ b/gpu_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>num_devices_dict</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>global_batch_size</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>total_images</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>time (s)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>throughput (images/s)</t>
         </is>
@@ -468,15 +473,18 @@
         <v>64</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>64</v>
       </c>
-      <c r="D2" t="n">
-        <v>24320</v>
-      </c>
       <c r="E2" t="n">
+        <v>24320</v>
+      </c>
+      <c r="F2" t="n">
         <v>88.7371</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>274.0680053776831</v>
       </c>
     </row>
@@ -488,15 +496,18 @@
         <v>128</v>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>128</v>
       </c>
-      <c r="D3" t="n">
-        <v>24320</v>
-      </c>
       <c r="E3" t="n">
+        <v>24320</v>
+      </c>
+      <c r="F3" t="n">
         <v>76.37869999999999</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>318.4133796464197</v>
       </c>
     </row>
@@ -508,15 +519,18 @@
         <v>256</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>256</v>
       </c>
-      <c r="D4" t="n">
-        <v>24320</v>
-      </c>
       <c r="E4" t="n">
+        <v>24320</v>
+      </c>
+      <c r="F4" t="n">
         <v>79.92400000000001</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>304.2890746208898</v>
       </c>
     </row>
@@ -528,15 +542,18 @@
         <v>32</v>
       </c>
       <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>64</v>
       </c>
-      <c r="D5" t="n">
-        <v>24320</v>
-      </c>
       <c r="E5" t="n">
+        <v>24320</v>
+      </c>
+      <c r="F5" t="n">
         <v>80.2499</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>303.0533371381148</v>
       </c>
     </row>
@@ -548,15 +565,18 @@
         <v>32</v>
       </c>
       <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>64</v>
       </c>
-      <c r="D6" t="n">
-        <v>24320</v>
-      </c>
       <c r="E6" t="n">
+        <v>24320</v>
+      </c>
+      <c r="F6" t="n">
         <v>79.42529999999999</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>306.1996618206038</v>
       </c>
     </row>
@@ -568,15 +588,18 @@
         <v>64</v>
       </c>
       <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>128</v>
       </c>
-      <c r="D7" t="n">
-        <v>24320</v>
-      </c>
       <c r="E7" t="n">
+        <v>24320</v>
+      </c>
+      <c r="F7" t="n">
         <v>60.513</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>401.8971130170377</v>
       </c>
     </row>
@@ -588,15 +611,18 @@
         <v>64</v>
       </c>
       <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>128</v>
       </c>
-      <c r="D8" t="n">
-        <v>24320</v>
-      </c>
       <c r="E8" t="n">
+        <v>24320</v>
+      </c>
+      <c r="F8" t="n">
         <v>57.2538</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>424.7752987574624</v>
       </c>
     </row>
@@ -608,15 +634,18 @@
         <v>128</v>
       </c>
       <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>256</v>
       </c>
-      <c r="D9" t="n">
-        <v>24320</v>
-      </c>
       <c r="E9" t="n">
+        <v>24320</v>
+      </c>
+      <c r="F9" t="n">
         <v>47.9327</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>507.3780529784469</v>
       </c>
     </row>
@@ -628,15 +657,18 @@
         <v>128</v>
       </c>
       <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>256</v>
       </c>
-      <c r="D10" t="n">
-        <v>24320</v>
-      </c>
       <c r="E10" t="n">
+        <v>24320</v>
+      </c>
+      <c r="F10" t="n">
         <v>48.2689</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>503.8440900869918</v>
       </c>
     </row>
@@ -648,15 +680,18 @@
         <v>256</v>
       </c>
       <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
         <v>512</v>
       </c>
-      <c r="D11" t="n">
-        <v>24320</v>
-      </c>
       <c r="E11" t="n">
+        <v>24320</v>
+      </c>
+      <c r="F11" t="n">
         <v>42.8679</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>567.3242682753296</v>
       </c>
     </row>
@@ -668,15 +703,18 @@
         <v>256</v>
       </c>
       <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
         <v>512</v>
       </c>
-      <c r="D12" t="n">
-        <v>24320</v>
-      </c>
       <c r="E12" t="n">
+        <v>24320</v>
+      </c>
+      <c r="F12" t="n">
         <v>43.5712</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>558.1668625146887</v>
       </c>
     </row>

--- a/gpu_results.xlsx
+++ b/gpu_results.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>num_devices_dict</t>
+          <t>num_devices</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
